--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04646E-11E3-460A-8122-58F911B3030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7CC50-04AB-4362-A86B-E9D42928466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1470" windowWidth="28800" windowHeight="13305" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Tipo</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Basic Z2lvdmFuaS5tZXNxdWl0YUB0a2VsZXZhdG9yLmNvbTpBVEFUVDN4RmZHRjB4eldURlhnSUdYWjdFZjJyY2JCR3RKc0kyQzFMT1RRWERWRGhtcWlobE1mMjducFJ3WU5Za1dtY0x6dTM4T3lOU2Ixd1ZHVW1MQnBKRTB1cjhiTkx5UllZNDlJaXQxSmIzdFhqYmVqQWExVzZlbXNWdnhjaW5XOWVXOEQwTVE2eWx5eDJhbUtYQW5xaExUSzBUTDg2UEUzX0tCMFdpU1FLcl9WOXZmYUQ2VHM9MDk4QUIzQkE=</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -356,6 +359,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1330,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,8 +1428,8 @@
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7">
-        <v>45903</v>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>56</v>
@@ -1479,10 +1484,10 @@
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="7">
-        <v>45903</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1535,8 +1540,8 @@
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7">
-        <v>45903</v>
+      <c r="B4" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>56</v>
@@ -1591,8 +1596,8 @@
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="7">
-        <v>45903</v>
+      <c r="B5" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>56</v>

--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEROTTOMESQUITAGIOVA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD7CC50-04AB-4362-A86B-E9D42928466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE18730-A712-456F-BC6C-B96DAEF2AE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Tipo</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -359,14 +362,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -826,25 +850,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -944,49 +949,49 @@
   <autoFilter ref="A1:T5" xr:uid="{34EDF7E8-F9F1-4A02-BCC1-0061C57737E6}"/>
   <tableColumns count="20">
     <tableColumn id="15" xr3:uid="{9D3665F0-D7CB-45E1-AE0B-9F76D637146D}" name="Projeto" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{17475CCE-38EC-430C-A662-BE3C26A1C942}" name="Data" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{60C66974-6CA7-4089-92F9-BABF613005E4}" name="Request" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{51E97284-BFAA-4861-A822-2A6DB4C9D289}" name="Task" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{700C3895-E1F6-4257-8E1D-A01186443FB2}" name="Módulo" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{BE3FE91E-C975-4B78-97B6-D84B4CBC46B5}" name="Tipo" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{DBA967F3-1582-431B-9CA9-69B69A4ADB4E}" name="Usuário Projeto" dataDxfId="26" dataCellStyle="Hiperlink"/>
-    <tableColumn id="6" xr3:uid="{A09D5223-7072-4916-A673-CC253AEC4D07}" name="PO" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{955C6BD2-46B6-4130-A18B-634985510BA4}" name="UUID PO" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{17475CCE-38EC-430C-A662-BE3C26A1C942}" name="Data" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{60C66974-6CA7-4089-92F9-BABF613005E4}" name="Request" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{51E97284-BFAA-4861-A822-2A6DB4C9D289}" name="Task" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{700C3895-E1F6-4257-8E1D-A01186443FB2}" name="Módulo" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{BE3FE91E-C975-4B78-97B6-D84B4CBC46B5}" name="Tipo" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{DBA967F3-1582-431B-9CA9-69B69A4ADB4E}" name="Usuário Projeto" dataDxfId="27" dataCellStyle="Hiperlink"/>
+    <tableColumn id="6" xr3:uid="{A09D5223-7072-4916-A673-CC253AEC4D07}" name="PO" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{955C6BD2-46B6-4130-A18B-634985510BA4}" name="UUID PO" dataDxfId="25">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{09EE19DB-ECB7-43FC-A3A6-BADFC14407F0}" name="Recurso" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{F94BAA16-B8AF-4537-98F7-C94D25E73816}" name="UUID Recurso" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{09EE19DB-ECB7-43FC-A3A6-BADFC14407F0}" name="Recurso" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{F94BAA16-B8AF-4537-98F7-C94D25E73816}" name="UUID Recurso" dataDxfId="23">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CFBAC8F4-E9E8-4F72-8ABB-02D3C6346441}" name="Épico" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{25078954-7076-4BA9-8F91-D372FC13FA36}" name="Estória" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{4C4D8165-8426-4D81-8ACD-B36886DE5BD1}" name="Tarefa" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{FE5CC8FF-0B8B-4CE3-A407-F2F92BE0EDDF}" name="Etapa" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{5313A2EC-BAF9-48AE-9ACD-F94ED01E8438}" name="Horas" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{87AD02A2-FA12-4FF1-A65F-D609C7570620}" name="Pontos" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{A92EE131-7739-4D72-A61A-DEC36273069C}" name="TicketE" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{6D7CADC8-E997-48A1-B8C1-F045B345A85C}" name="TicketS" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{4934F71A-1D5B-436D-8153-E1E6FD605A6B}" name="TicketT" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{CFBAC8F4-E9E8-4F72-8ABB-02D3C6346441}" name="Épico" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{25078954-7076-4BA9-8F91-D372FC13FA36}" name="Estória" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{4C4D8165-8426-4D81-8ACD-B36886DE5BD1}" name="Tarefa" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{FE5CC8FF-0B8B-4CE3-A407-F2F92BE0EDDF}" name="Etapa" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{5313A2EC-BAF9-48AE-9ACD-F94ED01E8438}" name="Horas" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{87AD02A2-FA12-4FF1-A65F-D609C7570620}" name="Pontos" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{A92EE131-7739-4D72-A61A-DEC36273069C}" name="TicketE" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{6D7CADC8-E997-48A1-B8C1-F045B345A85C}" name="TicketS" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{4934F71A-1D5B-436D-8153-E1E6FD605A6B}" name="TicketT" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B2:B6" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{37ACBF65-3280-4C14-9AC1-DA01AEE5488D}" name="Tipo" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{37ACBF65-3280-4C14-9AC1-DA01AEE5488D}" name="Tipo" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="D2:D12" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5354EC98-A874-42E9-83BC-28AED8707139}" name="Etapa" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5354EC98-A874-42E9-83BC-28AED8707139}" name="Etapa" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,10 +1012,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EDDA1B62-9775-42B8-A4F1-14EE4FE4FC17}" name="Tabela8" displayName="Tabela8" ref="I2:I3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EDDA1B62-9775-42B8-A4F1-14EE4FE4FC17}" name="Tabela8" displayName="Tabela8" ref="I2:I3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="I2:I3" xr:uid="{EDDA1B62-9775-42B8-A4F1-14EE4FE4FC17}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6E18B43B-8C43-4657-A24A-4853F613B9F1}" name="API Token" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6E18B43B-8C43-4657-A24A-4853F613B9F1}" name="API Token" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1336,37 +1341,37 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1424,11 +1429,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1472,22 +1477,22 @@
       <c r="O2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="9">
-        <v>0.5</v>
+      <c r="P2" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1536,11 +1541,11 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1592,11 +1597,11 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1649,11 +1654,6 @@
       <c r="T5" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P5" xr:uid="{7826CE68-F7FC-4180-800E-1FEB0BBDE178}">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{A8AAB5D3-10B8-4F4B-88DD-A77DA1AF37F6}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{FC068C17-B434-49DC-A456-8AE1F428DB4C}"/>
@@ -1700,20 +1700,20 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1816,55 +1816,55 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="12"/>
     </row>
   </sheetData>

--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEROTTOMESQUITAGIOVA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE18730-A712-456F-BC6C-B96DAEF2AE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823E392-3959-4239-BD5B-0B623E53FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="345" yWindow="1815" windowWidth="28800" windowHeight="13305" activeTab="1" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Tipo</t>
   </si>
@@ -51,9 +51,6 @@
     <t>UUID</t>
   </si>
   <si>
-    <t>API Token</t>
-  </si>
-  <si>
     <t>NOVO DESENVOLVIMENTO</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>TicketT</t>
-  </si>
-  <si>
-    <t>Basic Z2lvdmFuaS5tZXNxdWl0YUB0a2VsZXZhdG9yLmNvbTpBVEFUVDN4RmZHRjB4eldURlhnSUdYWjdFZjJyY2JCR3RKc0kyQzFMT1RRWERWRGhtcWlobE1mMjducFJ3WU5Za1dtY0x6dTM4T3lOU2Ixd1ZHVW1MQnBKRTB1cjhiTkx5UllZNDlJaXQxSmIzdFhqYmVqQWExVzZlbXNWdnhjaW5XOWVXOEQwTVE2eWx5eDJhbUtYQW5xaExUSzBUTDg2UEUzX0tCMFdpU1FLcl9WOXZmYUQ2VHM9MDk4QUIzQkE=</t>
   </si>
   <si>
     <t>2025-10-01</t>
@@ -232,18 +226,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,18 +272,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -340,88 +320,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -887,6 +813,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -945,53 +890,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{34EDF7E8-F9F1-4A02-BCC1-0061C57737E6}" name="Tabela6" displayName="Tabela6" ref="A1:T5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{34EDF7E8-F9F1-4A02-BCC1-0061C57737E6}" name="Tabela6" displayName="Tabela6" ref="A1:T5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:T5" xr:uid="{34EDF7E8-F9F1-4A02-BCC1-0061C57737E6}"/>
   <tableColumns count="20">
-    <tableColumn id="15" xr3:uid="{9D3665F0-D7CB-45E1-AE0B-9F76D637146D}" name="Projeto" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{17475CCE-38EC-430C-A662-BE3C26A1C942}" name="Data" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{60C66974-6CA7-4089-92F9-BABF613005E4}" name="Request" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{51E97284-BFAA-4861-A822-2A6DB4C9D289}" name="Task" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{700C3895-E1F6-4257-8E1D-A01186443FB2}" name="Módulo" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{BE3FE91E-C975-4B78-97B6-D84B4CBC46B5}" name="Tipo" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{DBA967F3-1582-431B-9CA9-69B69A4ADB4E}" name="Usuário Projeto" dataDxfId="27" dataCellStyle="Hiperlink"/>
-    <tableColumn id="6" xr3:uid="{A09D5223-7072-4916-A673-CC253AEC4D07}" name="PO" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{955C6BD2-46B6-4130-A18B-634985510BA4}" name="UUID PO" dataDxfId="25">
+    <tableColumn id="15" xr3:uid="{9D3665F0-D7CB-45E1-AE0B-9F76D637146D}" name="Projeto" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{17475CCE-38EC-430C-A662-BE3C26A1C942}" name="Data" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{60C66974-6CA7-4089-92F9-BABF613005E4}" name="Request" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{51E97284-BFAA-4861-A822-2A6DB4C9D289}" name="Task" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{700C3895-E1F6-4257-8E1D-A01186443FB2}" name="Módulo" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{BE3FE91E-C975-4B78-97B6-D84B4CBC46B5}" name="Tipo" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{DBA967F3-1582-431B-9CA9-69B69A4ADB4E}" name="Usuário Projeto" dataDxfId="23" dataCellStyle="Hiperlink"/>
+    <tableColumn id="6" xr3:uid="{A09D5223-7072-4916-A673-CC253AEC4D07}" name="PO" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{955C6BD2-46B6-4130-A18B-634985510BA4}" name="UUID PO" dataDxfId="21">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{09EE19DB-ECB7-43FC-A3A6-BADFC14407F0}" name="Recurso" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{F94BAA16-B8AF-4537-98F7-C94D25E73816}" name="UUID Recurso" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{09EE19DB-ECB7-43FC-A3A6-BADFC14407F0}" name="Recurso" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{F94BAA16-B8AF-4537-98F7-C94D25E73816}" name="UUID Recurso" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CFBAC8F4-E9E8-4F72-8ABB-02D3C6346441}" name="Épico" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{25078954-7076-4BA9-8F91-D372FC13FA36}" name="Estória" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{4C4D8165-8426-4D81-8ACD-B36886DE5BD1}" name="Tarefa" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{FE5CC8FF-0B8B-4CE3-A407-F2F92BE0EDDF}" name="Etapa" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{5313A2EC-BAF9-48AE-9ACD-F94ED01E8438}" name="Horas" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{87AD02A2-FA12-4FF1-A65F-D609C7570620}" name="Pontos" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{A92EE131-7739-4D72-A61A-DEC36273069C}" name="TicketE" dataDxfId="16"/>
-    <tableColumn id="19" xr3:uid="{6D7CADC8-E997-48A1-B8C1-F045B345A85C}" name="TicketS" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{4934F71A-1D5B-436D-8153-E1E6FD605A6B}" name="TicketT" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{CFBAC8F4-E9E8-4F72-8ABB-02D3C6346441}" name="Épico" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{25078954-7076-4BA9-8F91-D372FC13FA36}" name="Estória" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{4C4D8165-8426-4D81-8ACD-B36886DE5BD1}" name="Tarefa" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{FE5CC8FF-0B8B-4CE3-A407-F2F92BE0EDDF}" name="Etapa" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{5313A2EC-BAF9-48AE-9ACD-F94ED01E8438}" name="Horas" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{87AD02A2-FA12-4FF1-A65F-D609C7570620}" name="Pontos" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{A92EE131-7739-4D72-A61A-DEC36273069C}" name="TicketE" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{6D7CADC8-E997-48A1-B8C1-F045B345A85C}" name="TicketS" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{4934F71A-1D5B-436D-8153-E1E6FD605A6B}" name="TicketT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B2:B6" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{37ACBF65-3280-4C14-9AC1-DA01AEE5488D}" name="Tipo" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{37ACBF65-3280-4C14-9AC1-DA01AEE5488D}" name="Tipo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="D2:D12" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5354EC98-A874-42E9-83BC-28AED8707139}" name="Etapa" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{5354EC98-A874-42E9-83BC-28AED8707139}" name="Etapa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,16 +953,6 @@
     <tableColumn id="2" xr3:uid="{BED7BE5F-CD03-4AF9-B8E3-2001B86EA731}" name="UUID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EDDA1B62-9775-42B8-A4F1-14EE4FE4FC17}" name="Tabela8" displayName="Tabela8" ref="I2:I3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="I2:I3" xr:uid="{EDDA1B62-9775-42B8-A4F1-14EE4FE4FC17}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6E18B43B-8C43-4657-A24A-4853F613B9F1}" name="API Token" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1340,198 +1275,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>32</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P3" s="9">
         <v>4</v>
@@ -1541,53 +1476,53 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="9">
         <v>8</v>
@@ -1597,53 +1532,53 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="9">
         <v>20</v>
@@ -1694,26 +1629,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A47A7B-20DE-4E3C-8256-751B2421BDF6}">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,154 +1660,111 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>60</v>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="9" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="4">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823E392-3959-4239-BD5B-0B623E53FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB87A90-7105-4752-9A23-0C2881490363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1815" windowWidth="28800" windowHeight="13305" activeTab="1" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="3780" yWindow="2175" windowWidth="28800" windowHeight="13305" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Tipo</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Horas</t>
   </si>
   <si>
-    <t>ENS</t>
-  </si>
-  <si>
     <t>SCTASK0501210</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>TRE</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -338,7 +338,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1275,14 +1274,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1306,17 +1305,17 @@
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
@@ -1355,36 +1354,36 @@
         <v>39</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1401,46 +1400,48 @@
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -1457,13 +1458,13 @@
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>9</v>
@@ -1471,32 +1472,34 @@
       <c r="P3" s="9">
         <v>4</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -1513,13 +1516,13 @@
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>27</v>
@@ -1527,32 +1530,34 @@
       <c r="P4" s="9">
         <v>8</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
@@ -1569,13 +1574,13 @@
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>17</v>
@@ -1583,7 +1588,9 @@
       <c r="P5" s="9">
         <v>20</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -1631,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A47A7B-20DE-4E3C-8256-751B2421BDF6}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>

--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB87A90-7105-4752-9A23-0C2881490363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8959AE-48AD-428C-8843-E4359A88AEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2175" windowWidth="28800" windowHeight="13305" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="390" yWindow="2325" windowWidth="28800" windowHeight="13305" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
@@ -243,13 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -264,23 +257,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -317,36 +323,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="10">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -471,410 +497,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -889,39 +511,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{34EDF7E8-F9F1-4A02-BCC1-0061C57737E6}" name="Tabela6" displayName="Tabela6" ref="A1:T5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:T5" xr:uid="{34EDF7E8-F9F1-4A02-BCC1-0061C57737E6}"/>
-  <tableColumns count="20">
-    <tableColumn id="15" xr3:uid="{9D3665F0-D7CB-45E1-AE0B-9F76D637146D}" name="Projeto" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{17475CCE-38EC-430C-A662-BE3C26A1C942}" name="Data" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{60C66974-6CA7-4089-92F9-BABF613005E4}" name="Request" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{51E97284-BFAA-4861-A822-2A6DB4C9D289}" name="Task" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{700C3895-E1F6-4257-8E1D-A01186443FB2}" name="Módulo" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{BE3FE91E-C975-4B78-97B6-D84B4CBC46B5}" name="Tipo" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{DBA967F3-1582-431B-9CA9-69B69A4ADB4E}" name="Usuário Projeto" dataDxfId="23" dataCellStyle="Hiperlink"/>
-    <tableColumn id="6" xr3:uid="{A09D5223-7072-4916-A673-CC253AEC4D07}" name="PO" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{955C6BD2-46B6-4130-A18B-634985510BA4}" name="UUID PO" dataDxfId="21">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{09EE19DB-ECB7-43FC-A3A6-BADFC14407F0}" name="Recurso" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{F94BAA16-B8AF-4537-98F7-C94D25E73816}" name="UUID Recurso" dataDxfId="19">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{CFBAC8F4-E9E8-4F72-8ABB-02D3C6346441}" name="Épico" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{25078954-7076-4BA9-8F91-D372FC13FA36}" name="Estória" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{4C4D8165-8426-4D81-8ACD-B36886DE5BD1}" name="Tarefa" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{FE5CC8FF-0B8B-4CE3-A407-F2F92BE0EDDF}" name="Etapa" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{5313A2EC-BAF9-48AE-9ACD-F94ED01E8438}" name="Horas" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{87AD02A2-FA12-4FF1-A65F-D609C7570620}" name="Pontos" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{A92EE131-7739-4D72-A61A-DEC36273069C}" name="TicketE" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{6D7CADC8-E997-48A1-B8C1-F045B345A85C}" name="TicketS" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{4934F71A-1D5B-436D-8153-E1E6FD605A6B}" name="TicketT" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}" name="Tabela3" displayName="Tabela3" ref="B2:B6" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B2:B6" xr:uid="{C08CBC39-DC4A-4A25-B30E-4600EF86BBD2}"/>
   <tableColumns count="1">
@@ -931,7 +520,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}" name="Tabela7" displayName="Tabela7" ref="D2:D12" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="D2:D12" xr:uid="{181C7376-323D-4693-98A7-40F5B9EE88EA}"/>
   <tableColumns count="1">
@@ -941,7 +530,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3F956107-8DEF-48BB-9B0C-D744E9A2B0B3}" name="Tabela9" displayName="Tabela9" ref="F2:G8" totalsRowShown="0">
   <autoFilter ref="F2:G8" xr:uid="{3F956107-8DEF-48BB-9B0C-D744E9A2B0B3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:G8">
@@ -1275,13 +864,13 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1295,305 +884,305 @@
     <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="I2" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H2,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K2" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J2,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="J3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J3,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="N3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="18" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H4,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J4,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="20">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G5" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="I5" s="18" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$H5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K5" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J5,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="N5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="20">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="5" t="str">
-        <f>_xlfn.XLOOKUP(Tabela6[[#This Row],[PO]],Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1604,9 +1193,6 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8959AE-48AD-428C-8843-E4359A88AEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9730BF-0A21-407B-9574-96F547037AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2325" windowWidth="28800" windowHeight="13305" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
     <sheet name="Parâmetros" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha!$A$1:$T$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Tipo</t>
   </si>
@@ -214,9 +217,6 @@
   </si>
   <si>
     <t>2025-10-01</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>TRE</t>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -332,6 +332,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -345,27 +360,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -864,7 +879,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +969,7 @@
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>58</v>
@@ -1000,191 +1015,183 @@
       <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>59</v>
+      <c r="P2" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0.5</v>
       </c>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="str">
+      <c r="I3" s="4" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$H3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="13" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$J3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="18" t="str">
+      <c r="I4" s="4" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$H4,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="13" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$J4,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="18" t="str">
+      <c r="I5" s="4" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$H5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="13" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$J5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="20">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T1" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{A8AAB5D3-10B8-4F4B-88DD-A77DA1AF37F6}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{FC068C17-B434-49DC-A456-8AE1F428DB4C}"/>

--- a/JIRA/Planilha Sprint.xlsx
+++ b/JIRA/Planilha Sprint.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Projetos\Help\JIRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tke-my.sharepoint.com/personal/giovani_mesquita_tkelevator_com/Documents/Documents/jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9730BF-0A21-407B-9574-96F547037AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5E9730BF-0A21-407B-9574-96F547037AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34F1D8EF-C97A-45F9-8B87-419671B67588}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E273EEBA-F52A-4BAF-A498-A226C6E60208}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
     <sheet name="Parâmetros" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Tipo</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>TRE</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -352,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -382,6 +391,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -876,36 +889,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.109375" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -919,55 +934,64 @@
         <v>52</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>59</v>
       </c>
@@ -980,52 +1004,55 @@
       <c r="D2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="13" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H2,Tabela9[Pessoas],Tabela9[UUID])</f>
-        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="13" t="str">
         <f>_xlfn.XLOOKUP(Planilha!$J2,Tabela9[Pessoas],Tabela9[UUID])</f>
+        <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L2,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="18">
+      <c r="R2" s="22"/>
+      <c r="S2" s="18">
         <v>2</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="T2" s="19">
         <v>0.5</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>59</v>
       </c>
@@ -1038,49 +1065,51 @@
       <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H3,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K3" s="4" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="13" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J3,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M3" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L3,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="18">
+      <c r="S3" s="18">
         <v>6</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="T3" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>59</v>
       </c>
@@ -1093,49 +1122,51 @@
       <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H4,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K4" s="4" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J4,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="13" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J4,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M4" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L4,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="20">
+      <c r="S4" s="20">
         <v>10</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="T4" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
@@ -1148,55 +1179,57 @@
       <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$H5,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="K5" s="4" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$J5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>712020:8364b9cf-88a2-4399-9f86-fff7bed77ce2</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="13" t="str">
-        <f>_xlfn.XLOOKUP(Planilha!$J5,Tabela9[Pessoas],Tabela9[UUID])</f>
+      <c r="M5" s="13" t="str">
+        <f>_xlfn.XLOOKUP(Planilha!$L5,Tabela9[Pessoas],Tabela9[UUID])</f>
         <v>557058:330c824e-66ab-4df0-b7eb-8ddf9d578a4e</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="20">
+      <c r="S5" s="20">
         <v>6</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="T5" s="19">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}"/>
+  <autoFilter ref="A1:W1" xr:uid="{4C389745-ACC0-4977-B154-2361F313C2A6}"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{A8AAB5D3-10B8-4F4B-88DD-A77DA1AF37F6}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{FC068C17-B434-49DC-A456-8AE1F428DB4C}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{67C4B36C-B0BB-4A6E-B151-4A244C2D143A}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{A36E4F76-8E2B-446C-9028-1D827499BBF3}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{A8AAB5D3-10B8-4F4B-88DD-A77DA1AF37F6}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{FC068C17-B434-49DC-A456-8AE1F428DB4C}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{67C4B36C-B0BB-4A6E-B151-4A244C2D143A}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{A36E4F76-8E2B-446C-9028-1D827499BBF3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1207,19 +1240,19 @@
           <x14:formula1>
             <xm:f>Parâmetros!$B$3:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F5</xm:sqref>
+          <xm:sqref>H2:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14264A23-AFCA-478E-940E-5781B482AE85}">
           <x14:formula1>
             <xm:f>Parâmetros!$F$3:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H5 J2:J5</xm:sqref>
+          <xm:sqref>J2:J5 L2:L5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C88543BB-7C23-49E2-B665-476ACB3E0DC3}">
           <x14:formula1>
             <xm:f>Parâmetros!$D$3:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O5</xm:sqref>
+          <xm:sqref>Q2:R5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1235,19 +1268,19 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1328,7 +1361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1339,22 +1372,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
